--- a/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>id</t>
   </si>
@@ -33,6 +33,12 @@
     <t>技能icon</t>
   </si>
   <si>
+    <t>技能名称</t>
+  </si>
+  <si>
+    <t>技能cd</t>
+  </si>
+  <si>
     <t>lua,sql</t>
   </si>
   <si>
@@ -48,6 +54,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -57,12 +66,21 @@
     <t>icon</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cooldown</t>
+  </si>
+  <si>
     <t>技能描述</t>
   </si>
   <si>
     <t>icon_skill_0000</t>
   </si>
   <si>
+    <t>Base</t>
+  </si>
+  <si>
     <t>icon_skill_0001</t>
   </si>
   <si>
@@ -93,18 +111,33 @@
     <t>icon_skill_0010</t>
   </si>
   <si>
+    <t>冰箱</t>
+  </si>
+  <si>
     <t>icon_skill_0011</t>
   </si>
   <si>
+    <t>回春</t>
+  </si>
+  <si>
     <t>icon_skill_0012</t>
   </si>
   <si>
+    <t>电邢</t>
+  </si>
+  <si>
     <t>icon_skill_0013</t>
   </si>
   <si>
+    <t>疾跑</t>
+  </si>
+  <si>
     <t>icon_skill_0014</t>
   </si>
   <si>
+    <t>闪现</t>
+  </si>
+  <si>
     <t>icon_skill_0015</t>
   </si>
   <si>
@@ -226,6 +259,9 @@
   </si>
   <si>
     <t>icon_skill_0055</t>
+  </si>
+  <si>
+    <t>治疗</t>
   </si>
   <si>
     <t>icon_skill_0056</t>
@@ -272,10 +308,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -286,11 +322,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,8 +337,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,17 +374,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +413,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -361,9 +428,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,57 +459,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -439,187 +475,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,54 +666,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -705,6 +693,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -720,13 +752,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,10 +774,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,10 +786,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,121 +798,121 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,13 +1245,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
@@ -1226,7 +1262,7 @@
     <col min="7" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" spans="1:4">
+    <row r="1" ht="54" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,1013 +1275,1451 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>100001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>100002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>100003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>100004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>100005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>100006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>100007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>100008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>100009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>100010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>200001</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>200002</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>200003</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>200004</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>200005</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>200006</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>200007</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>200008</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>200009</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>200010</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>200011</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>200012</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>200013</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>200014</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>200015</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>200016</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>200017</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>200018</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>200019</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>200020</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>200021</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>200022</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>200023</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1">
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>200024</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>200025</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>200026</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>200027</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>200028</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>200029</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>200030</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>200031</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>200032</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>200033</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>200034</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>200035</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>200036</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>200037</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>200038</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>200039</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>200040</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>200041</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>200042</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>200043</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>200044</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>77</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>300001</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C59" s="1">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>300002</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C60" s="1">
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>300003</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1">
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>300004</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>300005</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C63" s="1">
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>300006</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>300007</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="1">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>300008</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C66" s="1">
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>300009</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C67" s="1">
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>300010</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" s="1">
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>300011</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C69" s="1">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>300012</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C70" s="1">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>300013</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C71" s="1">
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>300014</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C72" s="1">
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>300015</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C73" s="1">
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/SkillConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>id</t>
   </si>
@@ -39,6 +39,9 @@
     <t>技能cd</t>
   </si>
   <si>
+    <t>技能动作</t>
+  </si>
+  <si>
     <t>lua,sql</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>cooldown</t>
   </si>
   <si>
+    <t>animName</t>
+  </si>
+  <si>
     <t>技能描述</t>
   </si>
   <si>
@@ -81,10 +87,19 @@
     <t>Base</t>
   </si>
   <si>
+    <t>skill1</t>
+  </si>
+  <si>
     <t>icon_skill_0001</t>
   </si>
   <si>
+    <t>skill2</t>
+  </si>
+  <si>
     <t>icon_skill_0002</t>
+  </si>
+  <si>
+    <t>skill3</t>
   </si>
   <si>
     <t>icon_skill_0003</t>
@@ -308,23 +323,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -337,9 +344,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,29 +428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,29 +451,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -443,16 +465,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,181 +496,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,6 +703,50 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -703,50 +762,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -774,10 +789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,133 +801,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1245,13 +1260,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
@@ -1262,7 +1277,7 @@
     <col min="7" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" spans="1:6">
+    <row r="1" ht="54" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,1445 +1296,1664 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>100001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>100002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>100003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>100004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>100005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>100006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>100007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>100008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>100009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>100010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>200001</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>200002</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>200003</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>200004</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>200005</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>200006</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>200007</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>200008</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>200009</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F23" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>200010</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>200011</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>200012</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>200013</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>200014</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>200015</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F29" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>200016</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>200017</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F31" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>200018</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F32" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>200019</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F33" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>200020</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F34" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>200021</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F35" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>200022</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F36" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>200023</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1">
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F37" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>200024</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>200025</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F39" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>200026</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>200027</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>200028</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>200029</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F43" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>200030</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F44" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>200031</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F45" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>200032</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F46" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>200033</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F47" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>200034</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F48" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>200035</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F49" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>200036</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F50" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>200037</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>200038</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>200039</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>200040</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F54" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>200041</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>200042</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F56" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>200043</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F57" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>200044</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F58" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>300001</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F59" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>300002</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1">
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F60" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>300003</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1">
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F61" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>300004</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F62" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>300005</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C63" s="1">
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F63" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>300006</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F64" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>300007</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C65" s="1">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F65" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>300008</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C66" s="1">
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F66" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>300009</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C67" s="1">
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F67" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>300010</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C68" s="1">
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F68" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>300011</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C69" s="1">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F69" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>300012</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C70" s="1">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F70" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>300013</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C71" s="1">
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F71" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>300014</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C72" s="1">
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F72" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>300015</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1">
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F73" s="1">
         <v>3</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
